--- a/data/cfq_12_periods_test.xlsx
+++ b/data/cfq_12_periods_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAAFE69-7142-8649-95E0-A30865E0F9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DA7607-C0BD-3F4B-84D7-DAD5501264C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -1330,178 +1330,6 @@
 		"overdueDays": 0,
 		"institution": "dumiao",
 		"businessType": null
-	}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"assetSwapInfo": {
-		"projectId": 9293040,
-		"sourceApplyId": 759999,
-		"creditAssignMethod": "compensation",
-		"successAmount": 13175,
-		"actionTime": "2019-01-01 00:00:00",
-		"sourceCreateTime": "2019-01-01 00:00:00"
-	},
-	"assetSwapDetailList": [{
-			"projectId": 9293040,
-			"sourceDetailId": 57714713,
-			"sourceSwapId": 58429193,
-			"repaymentPlanType": "Principal",
-			"sourceRelatedPlanId": 102033938419,
-			"planCategory": 1,
-			"period": 1,
-			"actionTime": "2019-01-01 00:00:00",
-			"actionAmount": 12500,
-			"creditAssignMethod": "compensation",
-			"institution": "dumiao",
-			"sourceCreateTime": "2019-01-01 00:00:00",
-			"absPlanId": -1
-		},
-		{
-			"projectId": 9293040,
-			"sourceDetailId": 75713143,
-			"sourceSwapId": 578894296,
-			"repaymentPlanType": "Interest",
-			"sourceRelatedPlanId": 519485937,
-			"planCategory": 2,
-			"period": 1,
-			"actionTime": "2019-01-01 00:00:00",
-			"actionAmount": 625,
-			"creditAssignMethod": "compensation",
-			"institution": "dumiao",
-			"sourceCreateTime": "2019-01-01 00:00:00",
-			"absPlanId": -1
-		},
-		{
-			"projectId": 9293040,
-			"sourceDetailId": 58482913,
-			"sourceSwapId": 75481929394,
-			"repaymentPlanType": "Fee",
-			"sourceRelatedPlanId": 686115579,
-			"planCategory": 3001,
-			"period": 1,
-			"actionTime": "2019-12-09 15:16:28",
-			"actionAmount": 50,
-			"creditAssignMethod": "compensation",
-			"institution": "dumiao",
-			"sourceCreateTime": "2019-12-01 15:16:28",
-			"absPlanId": -1
-		}
-	],
-	"repaymentPlanList": [{
-			"assetPlanOwner": "financePartner",
-			"sourcePlanId": 57899135,
-			"repaymentPlanType": "Principal",
-			"repaymentStatus": "repayment_no",
-			"overdueStatus": "overdue",
-			"period": 1,
-			"planPayDate": "2019-12-09 00:00:00",
-			"curAmount": 12500,
-			"payAmount": 0,
-			"reliefAmount": 0,
-			"restAmount": 12500,
-			"payTime": null,
-			"overdueDays": 1,
-			"institution": "dumiao",
-			"creditAssignMethod": "compensation",
-			"absPlanId": null
-		}, {
-			"assetPlanOwner": "financePartner",
-			"sourcePlanId": 57899135,
-			"repaymentPlanType": "Interest",
-			"repaymentStatus": "repayment_no",
-			"overdueStatus": "overdue",
-			"period": 1,
-			"planPayDate": "2019-12-09 00:00:00",
-			"curAmount": 625,
-			"payAmount": 0,
-			"reliefAmount": 0,
-			"restAmount": 625,
-			"payTime": null,
-			"overdueDays": 1,
-			"institution": "dumiao",
-			"creditAssignMethod": "compensation",
-			"absPlanId": null
-		},
-		{
-			"assetPlanOwner": "foundPartner",
-			"sourcePlanId": 919238459,
-			"repaymentPlanType": "Principal",
-			"repaymentStatus": "repayment_no",
-			"overdueStatus": "overdue",
-			"period": 1,
-			"planPayDate": "2019-12-09 00:00:00",
-			"curAmount": 12500,
-			"payAmount": 0,
-			"reliefAmount": 0,
-			"restAmount": 12500,
-			"payTime": null,
-			"overdueDays": 1,
-			"institution": "dumiao",
-			"creditAssignMethod": "compensation",
-			"absPlanId": null
-		},
-		{
-			"assetPlanOwner": "foundPartner",
-			"sourcePlanId": 1724758281,
-			"repaymentPlanType": "Interest",
-			"repaymentStatus": "repayment_no",
-			"overdueStatus": "overdue",
-			"period": 1,
-			"planPayDate": "2019-12-09 00:00:00",
-			"curAmount": 625,
-			"payAmount": 0,
-			"reliefAmount": 0,
-			"restAmount": 625,
-			"payTime": null,
-			"overdueDays": 1,
-			"institution": "dumiao",
-			"creditAssignMethod": "compensation",
-			"absPlanId": null
-		}
-	],
-	"feePlanList": [{
-		"assetPlanOwner": "financePartner",
-		"sourcePlanId": 24499180,
-		"feeCategory": 3001,
-		"feeStatus": "repayment_no",
-		"overdueStatus": "overdue",
-		"period": 1,
-		"planPayDate": "2020-01-02 14:16:45",
-		"curAmount": 50.00,
-		"curExactAmount": 50.00,
-		"payAmount": 0.0,
-		"reliefAmount": 0.0,
-		"payTime": null,
-		"overdueDays": 1,
-		"institution": "dumiao",
-		"businessType": null,
-		"sourceRepaymentDetailId": "Test4116842",
-		"relatedPlanId": "623950",
-		"creditAssignMethod": "compensation",
-		"sourceCreateTime": "2020-01-02 14:16:45"
-	}, {
-		"assetPlanOwner": "foundPartner",
-		"sourcePlanId": 24499180,
-		"feeCategory": 3001,
-		"feeStatus": "repayment_no",
-		"overdueStatus": "overdue",
-		"period": 1,
-		"planPayDate": "2020-01-02 14:16:45",
-		"curAmount": 50.00,
-		"curExactAmount": 50.00,
-		"payAmount": 0.0,
-		"reliefAmount": 0.0,
-		"payTime": null,
-		"overdueDays": 1,
-		"institution": "dumiao",
-		"businessType": null,
-		"sourceRepaymentDetailId": "Test4116842",
-		"relatedPlanId": "623950",
-		"creditAssignMethod": "compensation",
-		"sourceCreateTime": "2020-01-02 14:16:45"
 	}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1723,6 +1551,171 @@
 	}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"assetSwapInfo": {
+		"projectId": "271667453531009024",
+		"sourceApplyId": "2871962826",
+		"creditAssignMethod": "compensation",
+		"successAmount": 13175,
+		"actionTime": "2020-12-10 10:30:59",
+		"sourceCreateTime": "2020-12-10 10:30:59"
+	},
+	"assetSwapDetailList": [{
+		"projectId": "271667453531009024",
+		"sourceDetailId": "8754151134",
+		"sourceSwapId": "4884852643",
+		"repaymentPlanType": "Principal",
+		"sourceRelatedPlanId": "122089816",
+		"planCategory": 1,
+		"period": 1,
+		"actionTime": "2020-12-10 10:30:59",
+		"actionAmount": 12500,
+		"creditAssignMethod": "compensation",
+		"institution": "dumiao",
+		"sourceCreateTime": "2020-12-10 10:30:59",
+		"absPlanId": -1
+	}, {
+		"projectId": "271667453531009024",
+		"sourceDetailId": "6265653221",
+		"sourceSwapId": "4790124653",
+		"repaymentPlanType": "Interest",
+		"sourceRelatedPlanId": "2065328389",
+		"planCategory": 2,
+		"period": 1,
+		"actionTime": "2020-12-10 10:30:59",
+		"actionAmount": 625,
+		"creditAssignMethod": "compensation",
+		"institution": "dumiao",
+		"sourceCreateTime": "2020-12-10 10:30:59",
+		"absPlanId": -1
+	}, {
+		"projectId": "271667453531009024",
+		"sourceDetailId": "5735174188",
+		"sourceSwapId": "684872262",
+		"repaymentPlanType": "Fee",
+		"sourceRelatedPlanId": "3955563839",
+		"planCategory": 3001,
+		"period": 1,
+		"actionTime": "2020-12-10 10:30:59",
+		"actionAmount": 50,
+		"creditAssignMethod": "compensation",
+		"institution": "dumiao",
+		"sourceCreateTime": "2020-12-10 10:30:59",
+		"absPlanId": -1
+	}],
+	"repaymentPlanList": [{
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 889185,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "overdue",
+		"period": 1,
+		"planPayDate": "2021-01-10",
+		"curAmount": 12500,
+		"payAmount": 0,
+		"reliefAmount": 0,
+		"restAmount": 12500,
+		"payTime": null,
+		"overdueDays": 1,
+		"institution": "dumiao",
+		"creditAssignMethod": "compensation",
+		"absPlanId": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 279857,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "overdue",
+		"period": 1,
+		"planPayDate": "2021-01-10",
+		"curAmount": 625,
+		"payAmount": 0,
+		"reliefAmount": 0,
+		"restAmount": 625,
+		"payTime": null,
+		"overdueDays": 1,
+		"institution": "dumiao",
+		"creditAssignMethod": "compensation",
+		"absPlanId": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 843109,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "overdue",
+		"period": 1,
+		"planPayDate": "2021-01-10",
+		"curAmount": 12500,
+		"payAmount": 0,
+		"reliefAmount": 0,
+		"restAmount": 12500,
+		"payTime": null,
+		"overdueDays": 1,
+		"institution": "dumiao",
+		"creditAssignMethod": "compensation",
+		"absPlanId": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 127053,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "overdue",
+		"period": 1,
+		"planPayDate": "2021-01-10",
+		"curAmount": 625,
+		"payAmount": 0,
+		"reliefAmount": 0,
+		"restAmount": 625,
+		"payTime": null,
+		"overdueDays": 1,
+		"institution": "dumiao",
+		"creditAssignMethod": "compensation",
+		"absPlanId": null
+	}],
+	"feePlanList": [{
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": "2346229889",
+		"feeCategory": 3001,
+		"feeStatus": "repayment_no",
+		"overdueStatus": "overdue",
+		"period": 1,
+		"planPayDate": "2020-12-10 10:31:01",
+		"curAmount": 50.0,
+		"curExactAmount": 50.0,
+		"payAmount": 0.0,
+		"reliefAmount": 0.0,
+		"payTime": null,
+		"overdueDays": 1,
+		"institution": "dumiao",
+		"businessType": null,
+		"sourceRepaymentDetailId": "3813350432",
+		"relatedPlanId": "2878650839",
+		"creditAssignMethod": "compensation",
+		"sourceCreateTime": "2020-12-10 10:31:01"
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": "3005488529",
+		"feeCategory": 3001,
+		"feeStatus": "repayment_no",
+		"overdueStatus": "overdue",
+		"period": 1,
+		"planPayDate": "2020-12-10 10:31:01",
+		"curAmount": 50.0,
+		"curExactAmount": 50.0,
+		"payAmount": 0.0,
+		"reliefAmount": 0.0,
+		"payTime": null,
+		"overdueDays": 1,
+		"institution": "dumiao",
+		"businessType": null,
+		"sourceRepaymentDetailId": "3223922381",
+		"relatedPlanId": "7552143107",
+		"creditAssignMethod": "compensation",
+		"sourceCreateTime": "2020-12-10 10:31:01"
+	}]
+}</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2136,7 +2129,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -2300,15 +2293,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2561,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA54A81F-3EE7-3F45-B926-134A18F70D2C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2604,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -2663,7 +2656,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>2000</v>

--- a/data/cfq_12_periods_test.xlsx
+++ b/data/cfq_12_periods_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DA7607-C0BD-3F4B-84D7-DAD5501264C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09014DF0-CD2A-1045-9259-5F26842481DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="compensation" sheetId="23" r:id="rId8"/>
     <sheet name="repurchase" sheetId="24" r:id="rId9"/>
     <sheet name="after_comp_repay" sheetId="25" r:id="rId10"/>
+    <sheet name="repay_two_periods" sheetId="28" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1716,6 +1717,277 @@
 		"sourceCreateTime": "2020-12-10 10:31:01"
 	}]
 }</t>
+  </si>
+  <si>
+    <t>橙分期12期还款2期</t>
+    <rPh sb="0" eb="1">
+      <t>yi zhi fu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan kuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "repayment": {
+    "projectId": "274556873590452224",
+    "sourceRepaymentId": "987585",
+    "repayType": "repayment",
+    "successAmount": 26250.0,
+    "payTime": "2020-12-18 09:52:25",
+    "sourceCreateTime": "2020-12-18 09:52:25"
+  },
+  "repaymentDetailList": [
+    {
+      "sourceRepaymentDetailId": "1805130660",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531697,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "954458241",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531698,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "18035130660",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531697,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "9544358241",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531698,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "2144703857",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741187,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    },
+    {
+      "sourceRepaymentDetailId": "351693489",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741188,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    },
+    {
+      "sourceRepaymentDetailId": "21344703857",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741187,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    },
+    {
+      "sourceRepaymentDetailId": "3516393489",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741188,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    }
+  ],
+  "repaymentPlanList": [
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 400251,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 878784,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 228791,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 572647,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 609496,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 448461,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:27",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 802972,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 995762,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:27",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    }
+  ],
+  "feePlanList": []
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2147,7 +2419,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2190,6 +2462,63 @@
       </c>
       <c r="E2" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68030D-8E19-E847-A9C5-46360A1255ED}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -2554,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA54A81F-3EE7-3F45-B926-134A18F70D2C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/data/cfq_12_periods_test.xlsx
+++ b/data/cfq_12_periods_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09014DF0-CD2A-1045-9259-5F26842481DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D96E6B5-A5E9-9C44-8FD1-5BE97127D536}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1986,6 +1986,12 @@
     }
   ],
   "feePlanList": []
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json",
+"X-TBC-SOURCE":"tbc_zhtb_pintec"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2354,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -2477,13 +2483,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68030D-8E19-E847-A9C5-46360A1255ED}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2574,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -2597,7 +2604,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2633,7 +2640,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
@@ -2651,7 +2658,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2689,7 +2696,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -2709,7 +2716,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2748,7 +2755,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>26</v>
@@ -2807,7 +2814,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -2827,7 +2834,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2858,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2866,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2">
@@ -2923,7 +2930,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
@@ -2943,7 +2950,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2982,7 +2989,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>29</v>
